--- a/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
+++ b/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
@@ -1,25 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="1920" yWindow="6360" windowWidth="25820" windowHeight="16220" activeTab="3"/>
-  </bookViews>
-  <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="calculates" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
-  </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
@@ -1064,46 +1042,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
@@ -1373,67 +1311,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20130408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.5" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
+++ b/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
@@ -1,3 +1,25 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="1920" yWindow="6360" windowWidth="25820" windowHeight="16220" activeTab="3"/>
+  </bookViews>
+  <sheets>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="calculates" sheetId="2" r:id="rId2"/>
+    <sheet name="choices" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
@@ -1042,6 +1064,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
@@ -1311,4 +1373,67 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="14.5" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
+++ b/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\twoColumn\forms\twoColumn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="6360" windowWidth="25820" windowHeight="16220" activeTab="3"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -237,9 +242,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -313,6 +315,9 @@
   </si>
   <si>
     <t>twoColumn</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -380,6 +385,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -678,66 +686,66 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-    <col min="5" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
-    <col min="10" max="10" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
+    <col min="5" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="8" width="27.125" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="10" max="10" width="41.875" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
     <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17.5" customHeight="1">
+    <row r="1" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -761,21 +769,21 @@
         <v>9</v>
       </c>
       <c r="V1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="2:22" ht="17.5" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="17.5" customHeight="1">
+    <row r="3" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
@@ -787,9 +795,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="17.5" customHeight="1">
+    <row r="4" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -801,12 +809,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:22" ht="17.5" customHeight="1">
+    <row r="5" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
@@ -818,9 +826,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="17.5" customHeight="1">
+    <row r="6" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -830,23 +838,23 @@
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:22" ht="17.5" customHeight="1">
+    <row r="7" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:22" ht="17.5" customHeight="1">
+    <row r="8" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:22" ht="17.5" customHeight="1">
+    <row r="9" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>1</v>
       </c>
@@ -861,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="17.5" customHeight="1">
+    <row r="10" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>2</v>
       </c>
@@ -885,12 +893,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="17.5" customHeight="1">
+    <row r="11" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>67</v>
@@ -902,7 +910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="17.5" customHeight="1">
+    <row r="12" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>2</v>
       </c>
@@ -917,17 +925,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="17.5" customHeight="1">
+    <row r="13" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:22" ht="17.5" customHeight="1">
+    <row r="14" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
@@ -938,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="17.5" customHeight="1">
+    <row r="15" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
@@ -962,98 +970,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="17.5" customHeight="1"/>
-    <row r="17" ht="17.5" customHeight="1"/>
-    <row r="18" ht="17.5" customHeight="1"/>
-    <row r="19" ht="17.5" customHeight="1"/>
-    <row r="20" ht="17.5" customHeight="1"/>
-    <row r="21" ht="17.5" customHeight="1"/>
-    <row r="22" ht="17.5" customHeight="1"/>
-    <row r="23" ht="17.5" customHeight="1"/>
-    <row r="24" ht="17.5" customHeight="1"/>
-    <row r="25" ht="17.5" customHeight="1"/>
-    <row r="26" ht="17.5" customHeight="1"/>
-    <row r="27" ht="17.5" customHeight="1"/>
-    <row r="28" ht="17.5" customHeight="1"/>
-    <row r="29" ht="17.5" customHeight="1"/>
-    <row r="30" ht="17.5" customHeight="1"/>
-    <row r="31" ht="17.5" customHeight="1"/>
-    <row r="32" ht="17.5" customHeight="1"/>
-    <row r="33" ht="17.5" customHeight="1"/>
-    <row r="34" ht="17.5" customHeight="1"/>
-    <row r="35" ht="17.5" customHeight="1"/>
-    <row r="36" ht="17.5" customHeight="1"/>
-    <row r="37" ht="17.5" customHeight="1"/>
-    <row r="38" ht="17.5" customHeight="1"/>
-    <row r="39" ht="17.5" customHeight="1"/>
-    <row r="40" ht="17.5" customHeight="1"/>
-    <row r="41" ht="17.5" customHeight="1"/>
-    <row r="42" ht="17.5" customHeight="1"/>
-    <row r="43" ht="17.5" customHeight="1"/>
-    <row r="44" ht="17.5" customHeight="1"/>
-    <row r="45" ht="17.5" customHeight="1"/>
-    <row r="46" ht="17.5" customHeight="1"/>
-    <row r="47" ht="17.5" customHeight="1"/>
-    <row r="48" ht="17.5" customHeight="1"/>
-    <row r="49" ht="17.5" customHeight="1"/>
-    <row r="50" ht="17.5" customHeight="1"/>
-    <row r="51" ht="17.5" customHeight="1"/>
-    <row r="52" ht="17.5" customHeight="1"/>
-    <row r="53" ht="17.5" customHeight="1"/>
-    <row r="54" ht="17.5" customHeight="1"/>
-    <row r="55" ht="17.5" customHeight="1"/>
-    <row r="56" ht="17.5" customHeight="1"/>
-    <row r="57" ht="17.5" customHeight="1"/>
-    <row r="58" ht="17.5" customHeight="1"/>
-    <row r="59" ht="17.5" customHeight="1"/>
-    <row r="60" ht="17.5" customHeight="1"/>
-    <row r="61" ht="17.5" customHeight="1"/>
-    <row r="62" ht="17.5" customHeight="1"/>
-    <row r="63" ht="17.5" customHeight="1"/>
-    <row r="64" ht="17.5" customHeight="1"/>
-    <row r="65" ht="17.5" customHeight="1"/>
-    <row r="66" ht="17.5" customHeight="1"/>
-    <row r="67" ht="17.5" customHeight="1"/>
-    <row r="68" ht="17.5" customHeight="1"/>
-    <row r="69" ht="17.5" customHeight="1"/>
-    <row r="70" ht="17.5" customHeight="1"/>
-    <row r="71" ht="17.5" customHeight="1"/>
-    <row r="72" ht="17.5" customHeight="1"/>
-    <row r="73" ht="17.5" customHeight="1"/>
-    <row r="74" ht="17.5" customHeight="1"/>
-    <row r="75" ht="17.5" customHeight="1"/>
-    <row r="76" ht="17.5" customHeight="1"/>
-    <row r="77" ht="17.5" customHeight="1"/>
-    <row r="78" ht="17.5" customHeight="1"/>
-    <row r="79" ht="17.5" customHeight="1"/>
-    <row r="80" ht="17.5" customHeight="1"/>
-    <row r="81" ht="17.5" customHeight="1"/>
-    <row r="82" ht="17.5" customHeight="1"/>
-    <row r="83" ht="17.5" customHeight="1"/>
-    <row r="84" ht="17.5" customHeight="1"/>
-    <row r="85" ht="17.5" customHeight="1"/>
-    <row r="86" ht="17.5" customHeight="1"/>
-    <row r="87" ht="17.5" customHeight="1"/>
-    <row r="88" ht="17.5" customHeight="1"/>
-    <row r="89" ht="17.5" customHeight="1"/>
-    <row r="90" ht="17.5" customHeight="1"/>
-    <row r="91" ht="17.5" customHeight="1"/>
-    <row r="92" ht="17.5" customHeight="1"/>
-    <row r="93" ht="17.5" customHeight="1"/>
-    <row r="94" ht="17.5" customHeight="1"/>
-    <row r="95" ht="17.5" customHeight="1"/>
-    <row r="96" ht="17.5" customHeight="1"/>
-    <row r="97" ht="17.5" customHeight="1"/>
-    <row r="98" ht="17.5" customHeight="1"/>
-    <row r="99" ht="17.5" customHeight="1"/>
-    <row r="100" ht="17.5" customHeight="1"/>
-    <row r="101" ht="17.5" customHeight="1"/>
-    <row r="102" ht="17.5" customHeight="1"/>
-    <row r="103" ht="17.5" customHeight="1"/>
-    <row r="104" ht="17.5" customHeight="1"/>
-    <row r="105" ht="17.5" customHeight="1"/>
-    <row r="106" ht="17.5" customHeight="1"/>
-    <row r="107" ht="17.5" customHeight="1"/>
+    <row r="16" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1072,21 +1080,21 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1">
+    <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1">
+    <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1112,25 +1120,25 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1">
+    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
       <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1">
+    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1">
+    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1">
+    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1174,7 +1182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" customHeight="1">
+    <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1">
+    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" customHeight="1">
+    <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" customHeight="1">
+    <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" customHeight="1">
+    <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1229,8 +1237,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="17.5" customHeight="1">
+    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.5" customHeight="1">
+    <row r="13" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.5" customHeight="1">
+    <row r="14" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.5" customHeight="1">
+    <row r="15" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.5" customHeight="1">
+    <row r="16" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.5" customHeight="1">
+    <row r="17" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.5" customHeight="1">
+    <row r="18" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.5" customHeight="1">
+    <row r="19" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1">
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1337,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.5" customHeight="1">
+    <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1348,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="23" spans="1:3" ht="17.5" customHeight="1">
+    <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.5" customHeight="1">
+    <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1363,8 +1371,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="26" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1380,54 +1388,54 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" customHeight="1">
+    <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" customHeight="1">
+    <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.5" customHeight="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
+++ b/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>type</t>
   </si>
@@ -53,9 +53,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -281,21 +278,9 @@
     <t>end if</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
     <t>Two Column Form</t>
   </si>
   <si>
@@ -318,12 +303,30 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.audio</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -436,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,9 +472,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,6 +524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V107"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -698,54 +735,55 @@
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="14.375" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
     <col min="15" max="15" width="15.875" customWidth="1"/>
     <col min="16" max="16" width="18.375" customWidth="1"/>
     <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="20" max="20" width="31.75" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
     <col min="22" max="22" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -762,19 +800,19 @@
       <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="V1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -783,24 +821,24 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -814,21 +852,21 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -840,16 +878,16 @@
     </row>
     <row r="7" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="2"/>
@@ -859,11 +897,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
@@ -874,23 +912,23 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="S10" t="s">
         <v>26</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>27</v>
-      </c>
-      <c r="T10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -898,16 +936,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -915,19 +953,19 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="2"/>
@@ -935,11 +973,11 @@
     <row r="14" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="2"/>
       <c r="L14">
@@ -948,20 +986,20 @@
     </row>
     <row r="15" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" t="s">
         <v>35</v>
       </c>
-      <c r="K15" t="s">
+      <c r="P15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="Q15" s="1">
         <v>1</v>
@@ -1088,18 +1126,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1129,246 +1167,246 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1426,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,26 +1438,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
@@ -1427,10 +1465,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
+++ b/app/config/tables/twoColumn/forms/twoColumn/twoColumn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" activeTab="3"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>form_version</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -747,43 +744,43 @@
   <sheetData>
     <row r="1" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -801,13 +798,13 @@
         <v>7</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -821,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>43</v>
@@ -835,7 +832,7 @@
     </row>
     <row r="4" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -852,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>40</v>
@@ -866,7 +863,7 @@
     </row>
     <row r="6" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -887,7 +884,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="2"/>
@@ -936,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>66</v>
@@ -973,7 +970,7 @@
     <row r="14" spans="2:22" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" t="s">
@@ -1126,7 +1123,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>37</v>
@@ -1154,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1167,13 +1164,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1425,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1438,21 +1435,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1465,10 +1462,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
